--- a/FinalPresentation/GroupGrading.xlsx
+++ b/FinalPresentation/GroupGrading.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W0038182\OneDrive - Nova Scotia Community College\Classes\Winter2024\Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\5-Data Analytics Winter 2024\INFT3000 - Capstone\FinalPresentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE70290A-3E3D-4BEC-BD24-EE439AB089B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964A0609-CA16-4684-926B-2884B55DFD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grades" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Group Member</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Group Member Performance and Contribution</t>
   </si>
   <si>
-    <t>Effort and Commitment [Teamwork] (10pts)</t>
-  </si>
-  <si>
     <t>Teamwork (10pts)</t>
   </si>
   <si>
@@ -151,6 +148,39 @@
   </si>
   <si>
     <t>Skills and Knowedge (5pts)</t>
+  </si>
+  <si>
+    <t>James Laurence - w0211593</t>
+  </si>
+  <si>
+    <t>Gabriela Mkonde</t>
+  </si>
+  <si>
+    <t>Louise Fear</t>
+  </si>
+  <si>
+    <t>Chris Whalen</t>
+  </si>
+  <si>
+    <t>With Louise being sick for a few weeks, I was unable to rely on her for the tasks I delegated and had to increase my workload to compensate this.</t>
+  </si>
+  <si>
+    <t>Gabby, was always reliable to complete tasks within the timeframe, or provide reason as to why she couldn't.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris did not show any initiative, had to wait to be told to do something. He seemed uninterested in doing anything outside his comfort zone of the material that was previously covered over the program. When I asked him to do something, he would try but would give up. (i.e. the xml extraction). With the minimum tasks that he did have, the time he spent on them was excessive, even though we were on a holding pattern due to the data extraction issue. he could have stepped up and offer to do other tasks, or even start something new. </t>
+  </si>
+  <si>
+    <t>Effort and Commitment 
+[Teamwork] (10pts)</t>
+  </si>
+  <si>
+    <t>Skills and 
+Knowedge (5pts)</t>
+  </si>
+  <si>
+    <t>Project Management
+and Coordination (5pts)</t>
   </si>
 </sst>
 </file>
@@ -251,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -282,6 +312,15 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,29 +605,32 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" customWidth="1"/>
-    <col min="5" max="5" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.33203125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
@@ -596,81 +638,120 @@
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="1">
+        <f>SUM(B7:D7)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="1">
+        <f>SUM(B8:D8)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="1">
+        <f>SUM(B9:D9)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
     </row>
   </sheetData>
@@ -690,200 +771,200 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.85546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="63.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E2" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="5:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E4" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="5:12" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E6" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="7">
         <v>5</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" s="7">
         <v>5</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L6" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E7" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="7">
         <v>3</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7">
         <v>3</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L7" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E8" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="7">
         <v>2</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="7">
         <v>2</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L8" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E9" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="7">
         <v>1</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E10" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="7">
         <v>0</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="3"/>
       <c r="K12" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E13" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7">
         <v>5</v>
       </c>
       <c r="H13" s="3"/>
       <c r="K13" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L13" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E14" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="7">
         <v>3</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L14" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E15" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="7">
         <v>2</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L15" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E16" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="7">
         <v>1</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L16" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E17" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="7">
         <v>0</v>

--- a/FinalPresentation/GroupGrading.xlsx
+++ b/FinalPresentation/GroupGrading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\5-Data Analytics Winter 2024\INFT3000 - Capstone\FinalPresentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964A0609-CA16-4684-926B-2884B55DFD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B04A2BC-997A-46B2-A4C9-C5A3B8239254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -310,17 +310,17 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,7 +605,7 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,7 +614,7 @@
     <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.33203125" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -631,27 +631,27 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -671,7 +671,7 @@
       <c r="D7" s="1">
         <v>8</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="1">
@@ -684,7 +684,7 @@
         <v>39</v>
       </c>
       <c r="B8" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -692,12 +692,12 @@
       <c r="D8" s="1">
         <v>8</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="1">
         <f>SUM(B8:D8)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
@@ -705,7 +705,7 @@
         <v>40</v>
       </c>
       <c r="B9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -713,12 +713,12 @@
       <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F9" s="1">
         <f>SUM(B9:D9)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -726,7 +726,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="17"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
